--- a/week-2/Exercises/2-3-B-data-quality-exercises.xlsx
+++ b/week-2/Exercises/2-3-B-data-quality-exercises.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\2-3-B-checking-data-quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BFEAA6-63E6-4930-9E8C-E28BCA75E627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B06C6-E80F-4D3E-80F6-3E9342E8555C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="start" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="sales" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -654,18 +653,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>